--- a/接口清单.xlsx
+++ b/接口清单.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="接口清单" sheetId="1" r:id="rId1"/>
+    <sheet name="支持地址" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="85">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -207,12 +207,164 @@
     <t>保险公司核保信息查询</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>云南省</t>
+  </si>
+  <si>
+    <t>宁夏回族自治区</t>
+  </si>
+  <si>
+    <t>浙江省</t>
+  </si>
+  <si>
+    <t>福建省</t>
+  </si>
+  <si>
+    <t>河北省</t>
+  </si>
+  <si>
+    <t>安徽省</t>
+  </si>
+  <si>
+    <t>山东省</t>
+  </si>
+  <si>
+    <t>湖北省</t>
+  </si>
+  <si>
+    <t>支持省份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持城市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芜湖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厦门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东省</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深圳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东莞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佛山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石家庄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江苏省</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无锡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泰州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>济南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烟台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四川省</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成都</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昆明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杭州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重庆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银川</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天津</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15个省或直辖市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23个城市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>城市个数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,6 +388,36 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -245,7 +427,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -253,11 +435,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -269,9 +473,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -284,7 +526,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -358,7 +600,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -393,7 +634,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -569,14 +809,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="20.625" customWidth="1"/>
     <col min="3" max="3" width="38.625" customWidth="1"/>
@@ -584,7 +824,7 @@
     <col min="5" max="5" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -598,7 +838,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -612,7 +852,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -626,7 +866,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -640,7 +880,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="81" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" ht="81">
       <c r="A5">
         <v>4</v>
       </c>
@@ -654,7 +894,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -668,7 +908,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" ht="40.5">
       <c r="A7">
         <v>6</v>
       </c>
@@ -682,7 +922,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -696,7 +936,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -710,7 +950,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -724,7 +964,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -738,12 +978,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>12</v>
       </c>
@@ -757,7 +997,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" ht="40.5">
       <c r="A14">
         <v>13</v>
       </c>
@@ -771,7 +1011,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>14</v>
       </c>
@@ -785,12 +1025,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" ht="27">
       <c r="A17">
         <v>16</v>
       </c>
@@ -804,7 +1044,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" ht="27">
       <c r="A18">
         <v>17</v>
       </c>
@@ -818,12 +1058,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>19</v>
       </c>
@@ -837,7 +1077,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5">
       <c r="A21">
         <v>20</v>
       </c>
@@ -851,7 +1091,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5" ht="67.5">
       <c r="A22">
         <v>21</v>
       </c>
@@ -876,25 +1116,267 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="C1:F25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="4" max="4" width="21" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="4:6">
+      <c r="D1" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="4:6">
+      <c r="D2" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="4:6">
+      <c r="D3" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="5">
+        <v>2</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="4:6">
+      <c r="D4" s="8"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="4:6">
+      <c r="D5" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="5">
+        <v>4</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="4:6">
+      <c r="D6" s="9"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="4:6">
+      <c r="D7" s="9"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="4:6">
+      <c r="D8" s="9"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="4:6">
+      <c r="D9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="4:6">
+      <c r="D10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="4:6">
+      <c r="D11" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="5">
+        <v>4</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="4:6">
+      <c r="D12" s="9"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="4:6">
+      <c r="D13" s="9"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="4:6">
+      <c r="D14" s="9"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="4:6">
+      <c r="D15" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="5">
+        <v>2</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="4:6">
+      <c r="D16" s="8"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6">
+      <c r="D17" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6">
+      <c r="D18" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6">
+      <c r="D19" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6">
+      <c r="D20" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6">
+      <c r="D21" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6">
+      <c r="D22" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6">
+      <c r="D23" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6">
+      <c r="D24" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E24" s="16"/>
+      <c r="F24" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6">
+      <c r="C25" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="E25" s="17"/>
+      <c r="F25" s="14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="E2:F24">
+    <sortCondition ref="E2"/>
+  </sortState>
+  <mergeCells count="8">
+    <mergeCell ref="D5:D8"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E5:E8"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="E15:E16"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D18" r:id="rId1" display="https://www.baidu.com/s?wd=%E4%BA%91%E5%8D%97%E7%9C%81&amp;rsv_idx=2&amp;tn=baiduhome_pg&amp;usm=1&amp;ie=utf-8&amp;rsv_cq=%E6%98%86%E6%98%8E%E5%B1%9E%E4%BA%8E%E5%93%AA%E4%B8%AA%E7%9C%81%E4%BB%BD&amp;rsv_dl=0_left_exactqa_28209&amp;rsv_lt8=1"/>
+    <hyperlink ref="D19" r:id="rId2" display="https://www.baidu.com/s?wd=%E6%B5%99%E6%B1%9F%E7%9C%81&amp;rsv_idx=2&amp;tn=baiduhome_pg&amp;usm=1&amp;ie=utf-8&amp;rsv_cq=%E6%9D%AD%E5%B7%9E%E5%B1%9E%E4%BA%8E%E5%93%AA%E4%B8%AA%E7%9C%81&amp;rsv_dl=0_left_exactqa_28209&amp;rsv_lt8=1"/>
+    <hyperlink ref="D3" r:id="rId3" display="https://www.baidu.com/s?wd=%E7%A6%8F%E5%BB%BA%E7%9C%81&amp;rsv_idx=2&amp;tn=baiduhome_pg&amp;ie=utf-8&amp;rsv_cq=%E7%A6%8F%E5%B7%9E%E5%B1%9E%E4%BA%8E%E5%93%AA%E4%B8%AA%E7%9C%81&amp;rsv_dl=0_left_exactqa_28209&amp;rsv_lt8=1"/>
+    <hyperlink ref="D9" r:id="rId4" display="https://www.baidu.com/s?wd=%E6%B2%B3%E5%8C%97%E7%9C%81&amp;rsv_idx=2&amp;tn=baiduhome_pg&amp;usm=2&amp;ie=utf-8&amp;rsv_cq=%E7%9F%B3%E5%AE%B6%E5%BA%84%E5%B1%9E%E4%BA%8E%E5%93%AA%E4%B8%AA%E7%9C%81&amp;rsv_dl=0_left_exactqa_28209&amp;rsv_lt8=1"/>
+    <hyperlink ref="D2" r:id="rId5" display="https://www.baidu.com/s?wd=%E5%AE%89%E5%BE%BD%E7%9C%81&amp;rsv_idx=2&amp;tn=baiduhome_pg&amp;ie=utf-8&amp;rsv_cq=%E8%8A%9C%E6%B9%96%E5%B1%9E%E4%BA%8E%E5%93%AA%E4%B8%AA%E7%9C%81&amp;rsv_dl=0_left_exactqa_28209&amp;rsv_lt8=1"/>
+    <hyperlink ref="D15" r:id="rId6" display="https://www.baidu.com/s?wd=%E5%B1%B1%E4%B8%9C%E7%9C%81&amp;rsv_idx=2&amp;tn=baiduhome_pg&amp;usm=2&amp;ie=utf-8&amp;rsv_cq=%E6%B5%8E%E5%8D%97%E5%B1%9E%E4%BA%8E%E5%93%AA%E4%B8%AA%E7%9C%81&amp;rsv_dl=0_left_exactqa_28209&amp;rsv_lt8=1"/>
+    <hyperlink ref="D10" r:id="rId7" display="https://www.baidu.com/s?wd=%E6%B9%96%E5%8C%97%E7%9C%81&amp;rsv_idx=2&amp;tn=baiduhome_pg&amp;usm=1&amp;ie=utf-8&amp;rsv_cq=%E6%AD%A6%E6%B1%89%E5%B1%9E%E4%BA%8E%E5%93%AA%E4%B8%AA%E7%9C%81&amp;rsv_dl=0_left_exactqa_28209&amp;rsv_lt8=1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
